--- a/training/output/LRSADTLM/P/P2_P0.xlsx
+++ b/training/output/LRSADTLM/P/P2_P0.xlsx
@@ -447,90 +447,90 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.981359649122807</v>
+        <v>0.9758771929824561</v>
       </c>
       <c r="B2" t="n">
-        <v>1.544414972004138</v>
+        <v>1.553708032557839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B3" t="n">
-        <v>1.478034579963015</v>
+        <v>1.478090104303862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B4" t="n">
-        <v>1.437217687305651</v>
+        <v>1.439846187307124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B5" t="n">
-        <v>1.411167755461576</v>
+        <v>1.408941977902463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B6" t="n">
-        <v>1.41830723536642</v>
+        <v>1.420188769959567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="B7" t="n">
-        <v>1.413355977911698</v>
+        <v>1.415018140223988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B8" t="n">
-        <v>1.416819568265948</v>
+        <v>1.419519650308709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B9" t="n">
-        <v>1.407958386237161</v>
+        <v>1.411192651380572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B10" t="n">
-        <v>1.400939094392877</v>
+        <v>1.399910437433343</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9945175438596491</v>
       </c>
       <c r="B11" t="n">
-        <v>1.440696074251543</v>
+        <v>1.443473146672834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="B12" t="n">
-        <v>1.409000888205411</v>
+        <v>1.407060190250999</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1.407287286038984</v>
+        <v>1.411311724729705</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1.407857196372852</v>
+        <v>1.409121147373266</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1.403140178897925</v>
+        <v>1.39890590257812</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1.407610347396449</v>
+        <v>1.402396973810698</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1.394473663547583</v>
+        <v>1.39335690883168</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1.396058975604543</v>
+        <v>1.394652881120381</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1.400110123450296</v>
+        <v>1.397397706383153</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1.442379811353851</v>
+        <v>1.439296898088957</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1.406517248404654</v>
+        <v>1.415852481858772</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1.39960523446401</v>
+        <v>1.409693979380424</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>1.393071440228245</v>
+        <v>1.397987114755731</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1.396571761683414</v>
+        <v>1.397248027617471</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1.401223226597435</v>
+        <v>1.40550324582217</v>
       </c>
     </row>
     <row r="26">
@@ -642,15 +642,15 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1.39351771379772</v>
+        <v>1.394300805894952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1.393685232129013</v>
+        <v>1.393404479612384</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1.394984293402287</v>
+        <v>1.395550265646818</v>
       </c>
     </row>
     <row r="29">
@@ -666,39 +666,39 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1.393167654673259</v>
+        <v>1.393006598740293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1.394301146791692</v>
+        <v>1.396596360624882</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1.39276549481509</v>
+        <v>1.394315531379298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1.392989451425117</v>
+        <v>1.392804681209096</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1.391611226818018</v>
+        <v>1.392524815442269</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1.399540041622363</v>
+        <v>1.401488423347473</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1.407073637895417</v>
+        <v>1.412497932450813</v>
       </c>
     </row>
     <row r="36">
@@ -722,15 +722,15 @@
         <v>0.9989035087719298</v>
       </c>
       <c r="B36" t="n">
-        <v>1.394048339442203</v>
+        <v>1.397554374577706</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1.39172875672056</v>
+        <v>1.392375571685925</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1.390219297325402</v>
+        <v>1.390946087084318</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>1.389819569755019</v>
+        <v>1.390240828196208</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1.391844404371161</v>
+        <v>1.392890938541345</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>1.388953514266432</v>
+        <v>1.388992077425907</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>1.389832958840487</v>
+        <v>1.38990851243337</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>1.390147474774143</v>
+        <v>1.390199247159456</v>
       </c>
     </row>
     <row r="44">
@@ -786,15 +786,15 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>1.393152253669605</v>
+        <v>1.394863118205154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>1.389830332053335</v>
+        <v>1.390208700246978</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>1.389806324975532</v>
+        <v>1.389985207925763</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>1.391671638739737</v>
+        <v>1.392572189632215</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1.395716112956666</v>
+        <v>1.396468654013517</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1.393323086855704</v>
+        <v>1.393200694468983</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1.389636633688943</v>
+        <v>1.390551374669661</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1.390482342034056</v>
+        <v>1.39125134652121</v>
       </c>
     </row>
     <row r="52">
@@ -850,23 +850,23 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1.397459818605791</v>
+        <v>1.394362169399596</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1.390916176009596</v>
+        <v>1.392378079263787</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>1.394613297362077</v>
+        <v>1.394861474371793</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>1.39343005523347</v>
+        <v>1.393447097979094</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1.397382575168944</v>
+        <v>1.39712671438853</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>1.390591604667798</v>
+        <v>1.389674036126388</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>1.389121808503804</v>
+        <v>1.389525179277387</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>1.389365110480995</v>
+        <v>1.389171951695492</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>1.43454773175089</v>
+        <v>1.430068133170145</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>1.388779094344691</v>
+        <v>1.390155212921009</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>1.390312686301114</v>
+        <v>1.393606501713134</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>1.394846228131077</v>
+        <v>1.395950421952365</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>1.388504030411704</v>
+        <v>1.389397941137615</v>
       </c>
     </row>
     <row r="65">
@@ -954,31 +954,31 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>1.391170836331552</v>
+        <v>1.391519960604216</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9945175438596491</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>1.410830163119132</v>
+        <v>1.412803796299717</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>1.392048722819278</v>
+        <v>1.392243291202344</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>1.388991253417835</v>
+        <v>1.389232972212005</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>1.38897835162648</v>
+        <v>1.389098692358586</v>
       </c>
     </row>
     <row r="70">
@@ -994,31 +994,31 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>1.388853255071138</v>
+        <v>1.389009210101345</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1.397046635025426</v>
+        <v>1.399960798129701</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>1.389263673832542</v>
+        <v>1.391144773416352</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9989035087719298</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>1.437312527706749</v>
+        <v>1.442578972431651</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>1.390137701703791</v>
+        <v>1.389528565239488</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>1.39317928908164</v>
+        <v>1.392456025408025</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>1.389067099805464</v>
+        <v>1.388236566593773</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389503995577494</v>
+        <v>1.388724552957635</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>1.393118283204865</v>
+        <v>1.389845078451592</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392841813857095</v>
+        <v>1.393767791881896</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>1.390471006694593</v>
+        <v>1.389858143371448</v>
       </c>
     </row>
     <row r="81">
@@ -1082,15 +1082,15 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>1.443432646885253</v>
+        <v>1.449939813530236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0.9978070175438597</v>
       </c>
       <c r="B82" t="n">
-        <v>1.398275850111978</v>
+        <v>1.398227292194701</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>1.389934790761847</v>
+        <v>1.390611974816573</v>
       </c>
     </row>
     <row r="84">
@@ -1106,15 +1106,15 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>1.400179637105841</v>
+        <v>1.399770121825369</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0.9989035087719298</v>
       </c>
       <c r="B85" t="n">
-        <v>1.390202905002393</v>
+        <v>1.393553428482591</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>1.392407969424599</v>
+        <v>1.392247243931419</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>1.389019321977047</v>
+        <v>1.389169322816949</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>1.429404273367765</v>
+        <v>1.436763891002588</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1.389352942767896</v>
+        <v>1.392660833241647</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1.391252743570428</v>
+        <v>1.393227715241282</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>1.38986823642463</v>
+        <v>1.392756618951496</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1.388085599531207</v>
+        <v>1.388530358933566</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1.388906294839424</v>
+        <v>1.389536405864515</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>1.388414592073675</v>
+        <v>1.388881601785359</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1.389802041806673</v>
+        <v>1.391697262462817</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1.387630590221338</v>
+        <v>1.387844324111938</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1.390174242488125</v>
+        <v>1.390668051284656</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1.394672830899556</v>
+        <v>1.395403903827333</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1.392317755180493</v>
+        <v>1.393595977833397</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1.395261879552875</v>
+        <v>1.397256288612098</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1.389493001134772</v>
+        <v>1.389162448414585</v>
       </c>
     </row>
   </sheetData>
